--- a/Python/question.xlsx
+++ b/Python/question.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>tweenty_Q1</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>TrNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_R1.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_LR28.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_RL28.wav</t>
+  </si>
+  <si>
+    <t>journey_Q1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L1.wav</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,20 +112,240 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stim/Journey_L1.wav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stim/Journey_R1.wav</t>
+    <t>stim/Journey_L2.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R2.wav</t>
+  </si>
+  <si>
+    <t>괴물의 길이를 너무 작게 추정한 사람은 괴물의 길이를 얼마라고 추정했는가?
+1.  67미터
+2.  65미터  
+3.  62미터
+4.  60미터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언급된 '부인할 수 없는 것'은 무엇인가?
+1.  괴물이 존재한다.
+2.  괴물은 파란색이다.
+3.  괴물은 수컷이다.
+4.  괴물은 사람을 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마르테는 어디로 사라졌는가?
+1.  서재
+2.  현관문
+3.  요리실험실
+4.  꼭대기층의 작은 방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 보풀이 일어난 모자를 어디에 두었는가?
+1.  탁자
+2.  옷걸이
+3.  선반
+4.  의자 위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L3.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R3.wav</t>
+  </si>
+  <si>
+    <t>베이커 선장은 처음에 그 물체를 무엇이라고 생각했는가?
+1.  섬
+2.  동물
+3.  암초
+4.  지붕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히긴슨 총독호와 비슷한 상황을 겪은 배의 이름은 무엇인가? 
+1.  크리스토발 콜론호
+2.  아브라함 링컨호
+3.  캘커타-버마호
+4.  세르피아호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 어떤 과목을 강의하는가?
+1.  천문학
+2.  통계학
+3.  기상학
+4.  광물학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 누구를 위해 강의하는가?
+1.  부인 
+2.  자신
+3.  조카
+4.  친구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L4.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R4.wav</t>
+  </si>
+  <si>
+    <t>괴물의 길이는 적어도 몇 미터 이상으로 추측하는가?
+1.  50미터
+2.  100미터
+3.  150미터
+4.  200미터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 큰 고래의 길이는 어느정도인가?
+1.  36미터
+2.  46미터
+3.  56미터
+4.  66미터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 어떤 증상을 가지고 있는가?
+1.  조현병
+2.  기억 상실
+3.  알콜 중독
+4.  말 더듬증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 말문이 막힐 때 어떻게 행동하는가?
+1.  집어던지기
+2.  소리지르기
+3.  욕하기
+4.  책상 내려치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L5.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R5.wav</t>
+  </si>
+  <si>
+    <t>화자가 국민들의 기질이 심각하고 실용주의적이라고 언급한 나라가 아닌 곳은 어디인가?
+1.  프랑스
+2.  영국
+3.  독일
+4.  미국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 속의 괴물들이 실제로 존재한다고 믿었던 학자로 언급된 인물은?
+1.  니체
+2.  뉴턴
+3.  플라톤
+4.  아리스토텔레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 생각하기에 삼촌이 말을 더듬는 이유는 무엇인가?
+1.  용어가 어려워서
+2.  너무 긴장해서
+3.  혀에 이상이 있어서
+4.  할 말을 까먹어서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들은 삼촌이 강의 중 화내는 것을 어떻게 생각하는가?
+1.  안타깝다
+2.  짜증난다
+3.  재밌다
+4.  신기하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L6.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R6.wav</t>
+  </si>
+  <si>
+    <t>해링턴 선장이 봤다고 주장한 생물은?
+1.  거대한 문어
+2.  거대한 고래
+3.  거대한 바다뱀
+4.  거대한 상어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자들은 괴물의 존재에 대해 얼마동안 논쟁했는가?
+1.  6일
+2.  6주
+3.  6달
+4.  6년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자는 삼촌을 어떻게 평가하는가?
+1.  진정한 학자
+2.  성실한 연구원
+3.  능력있는 강사
+4.  힘있는 지도자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌의 이름으로 맞는 것은?
+1.  에벨만
+2.  리덴부르크
+3.  셰빙
+4.  플랭클린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L7.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R7.wav</t>
+  </si>
+  <si>
+    <t>괴물에 대해 계속 재치있게 반박한 곳이 어디인가?
+1.  군소신문 
+2.  해양 잡지사
+3.  사립 연구소
+4.  코미디 프로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논쟁의 결과로 옳은 것은?
+1.  과학이 재치를 이겼다.
+2.  괴물은 거대 바다뱀으로 밝혀졌다.
+3.  괴물을 믿는 사람들은 웃음거리가 되었다.
+4.  괴물이 존재하지 않는다는 것을 과학적으로 증명했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 어떤 분야에서 중요한 발견을 했는가?
+1.  생물학
+2.  천문학
+3.  화학
+4.  물리학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그의 삼촌은 _________.
+1.  키가 크고 말랐다
+2.  키가 작고 말랐다
+3.  키가 크고 뚱뚱하다
+4.  키가 작고 뚱뚱하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>stim/Journey_L8.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stim/Journey_R8.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사람들은 괴물의 정체가 무엇이라고 추정했는가?
@@ -115,7 +353,7 @@
 2.  잠수함
 3.  빙하
 4.  바다 쓰레기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>모라비안호의 속도는 얼마였는가?
@@ -123,7 +361,7 @@
 2.  11노트
 3.  12노트
 4.  13노트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>삼촌에 대한 설명으로 틀린 것은?
@@ -131,7 +369,7 @@
 2.  코는 예리한 칼날 같이 생겼다.
 3.  담배를 핀다.
 4.  작은 눈에 커다란 안경을 쓰고 있다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>화자는 삼촌의 성격을 어떻게 표현하는가?
@@ -139,7 +377,236 @@
 2.  배려심이 깊다.
 3.  걱정이 많다.
 4.  성질이 급하다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L9.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_R9.wav</t>
+  </si>
+  <si>
+    <t>사고가 일어난 시각은 언제인가?
+1.  오전 5시
+2.  오후 5시
+3.  오전 11시
+4.  오후 11시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고 이후 몇 주 후에 다시 사고가 발생했는가?
+1.  1
+2.  2
+3.  3
+4.  4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집이 어디에 위치하는가?
+1.  바닷가
+2.  운하 옆
+3.  시내 변두리
+4.  산 아래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 옆의  나무는 어떤 나무인가?
+1.  사과나무
+2.  벚나무
+3.  느릅나무
+4.  소나무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L10.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R10.wav</t>
+  </si>
+  <si>
+    <t>처음 큐나드 해운이 한 사업은?
+1.  식량 운송 사업
+2.  우편 수송 사업
+3.  관광 사업
+4.  해양 개척 사업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1867년 큐나드해운이 가지고 있던 배는 총 몇 척인가?
+1.  4
+2.  8
+3.  12
+4.  16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌의 집은 _____.
+1.  그의 것이다
+2.  월셋집이다
+3.  임대한 것이다
+4.  대학이 제공한 것이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 관심있어하는 학문은?
+1.  역사학
+2.  경제학
+3.  철학
+4.  지질학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L11.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R11.wav</t>
+  </si>
+  <si>
+    <t>큐나드해운은 26년 간 대서양을 몇 번 횡단했는가?
+1.  1000
+2.  2000
+3.  3000
+4.  4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배에 충격이 있을 때, 승객들은 어디에 있었나?
+1.  대연회실
+2.  갑판 
+3.  선장실
+4.  객실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 모종을 빨리 자라게 하려고 한 행동은?
+1.  물을 자주 준다.
+2.  햇빛을 따라 장소를 계속 옮긴다.
+3.  이파리를 잡아당긴다.
+4.  잎을 딴다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 친구들과 노는 것보다 좋아했던 것은 무엇인가?
+1.  삼촌이 가져온 암석을 분류하는 일
+2.  암석 표본 위의 먼지를 닦는 일
+3.  암석을 구경하며 바닥을 청소하는 일
+4.  삼촌이 가져온 암석에 이름표를 붙이는 일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L12.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R12.wav</t>
+  </si>
+  <si>
+    <t>스코샤 호는 어떤 물체와 충돌한 것 같았는가?
+1.  크고 둔탁한 물체
+2.  작고 동그란 물체
+3.  예리한 도구
+4.  크고 가벼운 물체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코샤호는 수밀격벽으로 몇 개의 공간으로 나뉘어 있는가?
+1.  4
+2.  5
+3.  6
+4.  7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 생각할 때 과학 표본으로서 금속류의 절대적 가치는 어떠한가?
+1.  철과 금은 동등한 가치를 지닌다.
+2.  철은 금보다 과학적인 측면에서 가치가 있다.
+3.  금은 철보다 과학적인 측면에서 가치가 있다.
+4.  금속류의 절대적 가치와 상대적 가치는 다를 것이 없다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 수집하는 것이 무엇인가?
+1.  우표
+2.  신발
+3.  책
+4.  가구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L13.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R13.wav</t>
+  </si>
+  <si>
+    <t>스코샤 호에 난 구멍의 크기는 대략 어느 정도인가?
+1.  지름 50센치
+2.  지름 1미터
+3.  지름 1미터 50센치
+4.  지름 2미터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코샤호에 난 구멍은 어떤 모양이었는가?
+1.  원
+2.  삼각형
+3.  사각형
+4.  육각형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 표지의 가죽은 무엇인가?
+1.  소가죽
+2.  양가죽
+3.  말가죽
+4.  개가죽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 책에 어떤 부분을 칭찬하는가?
+1.  표지
+2.  제본
+3.  내용
+4.  그림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L14.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R14.wav</t>
+  </si>
+  <si>
+    <t>통신이 두절된 채 배가 사라지는 사건이 해마다 몇 건씩 보고되는가?
+1.  20건
+2.  40건
+3.  200건
+4.  400건</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건이 일어나던 때, 화자는 어디에 있었는가?
+1.  미국
+2.  중국
+3.  영국
+4.  프랑스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>책은 얼마나 오래되었는가?
+1.  70년
+2.  150년
+3.  700년
+4.  1500년</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>책의 저자는 국적은 어디인가?
+1.  프랑스
+2.  아이슬란드
+3.  오스트리아
+4.  이탈리아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stim/Journey_L15.wav</t>
@@ -220,12 +687,164 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>stim/Journey_L17.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R17.wav</t>
+  </si>
+  <si>
+    <t>화자는 왜 정부들이 거짓말을 하지 않을 것이라고 생각하는가?
+1.  유럽과 아시아 사이를 이동하는 것이 위태로워졌기 때문
+2.  아시아와 아메리카 사이를 이동하는 것이 위태로워졌기 때문
+3.  아메리카와 유럽 사이를 이동하는 것이 위태로워졌기 때문
+4.  유럽과 아프리카 사이를 이동하는 것이 위태로워졌기 때문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠수함을 만드는 것에 대한 예시로 든 배의 이름은 무엇인가?
+1.  모니터호
+2.  프로이센호
+3.  크렙톤호
+4.  하비루스호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 양피지를 어떻게 했는가?
+1.  바로 버렸다.
+2.  조심스럽게 책상에 올렸다.
+3.  다시 책에 끼워두었다.
+4.  화자에게 읽어보라고 건넸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작 중 시대는 언제인가?
+1.  16세기
+2.  17세기
+3.  18세기
+4.  19세기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L18.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R18.wav</t>
+  </si>
+  <si>
+    <t>화자가 출간한 책은 무엇인가?
+1.  심해의 신비
+2.  모비딕
+3.  해양생물의 이해
+4.  해저 세계 연구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자에게 입장을 밝히라고 요구한 곳은 어디인가?
+1.  국립해양연구소
+2.  뉴욕 해럴드
+3.  UCLA
+4.  해군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 해석하지 못하는 것을 보고 조카는 어떤 기분이었는가?
+1.  고소하다.
+2.  안타깝다.
+3.  실망스럽다.
+4.  우쭐하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괘종시계가 몇 시를 알렸는가?
+1.  1시
+2.  2시
+3.  3시
+4.  4시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L19.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R19.wav</t>
+  </si>
+  <si>
+    <t>화자는 언제 자신의 글을 신문에 발표했는가?
+1.  2월 30일
+2.  3월 30일
+3.  4월 30일
+4.  5월 30일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자는 수심 몇 킬로미터 아래에도 생물이 살 수 있는지에 대해 의구심을 품고 있는가?
+1.  수심 30-35 킬로미터
+2.  수심 15-20 킬로미터
+3.  수심 25-30 킬로미터
+4.  수심 20-25 킬로미터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자는 삼촌이 화를 낸 뒤 어떤 행동을 했는가?
+1.  하녀를 뒤따라 나갔다.
+2.  삼촌과 같이 하녀를 나무랐다.
+3.  삼촌 몰래 점심을 먹었다.
+4.  서재 안에서 쭈뼛거리며 앉아있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심식사 메뉴로 옳지 않은 것은?
+1.  파슬리스프
+2.  오믈렛
+3.  양고기
+4.  푸딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L20.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R20.wav</t>
+  </si>
+  <si>
+    <t>괴물이 만약 우리가 알지 못하는 어류에 속한다고 가정할 때, 화자는 괴물이 수면까지 올라온 이유가 무엇이라고 추측하는가?
+1.  햇빛을 쐬기 위해서
+2.  우발적으로 평소와 다르게 행동해서
+3.  동족과의 영역 싸움에서 밀려나서
+4.  영양이 풍부한 먹거리를 찾기 위해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일각고래는 최대 몇 미터까지 자라는가?
+1.  14
+2.  16
+3.  18
+4.  20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하녀가 큰 일이 일어날 것이라고 한 이유가 무엇인가?
+1.  삼촌이 집에 들어오지 않아서
+2.  삼촌이 식사를 하지 않아서
+3.  화자가 삼촌 몫까지 다 먹어버려서
+4.  삼촌을 깨워도 일어나지 않아서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 마지막 참새우를 먹지 못한 이유는 무엇인가?
+1.  하녀가 삼촌 몫까지 먹는 화자를 나무랐기 때문
+2.  집 안을 울리는 쩌렁쩌렁한 큰 소리가 들렸기 때문
+3.  차마 삼촌 몫까지 전부 먹어버릴 수는 없었기 때문
+4.  마지막 남은 참새우가 상한 것 같았기 때문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>stim/Journey_L21.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stim/Journey_R21.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>일각고래가 가진 무기는 무엇인가?
@@ -298,12 +917,164 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>stim/Journey_L23.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R23.wav</t>
+  </si>
+  <si>
+    <t>옛날 지질 시대 때, 몸집이 컸던 생물의 종류로 언급되지 않은 것은?
+1.  포유류
+2.  영장류
+3.  파충류
+4.  곤충류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물체에 대한 여론으로 옳은 것은?
+1.  괴물은 고래다.
+2.  괴물은 존재하지 않는다.
+3.  괴물은 바다뱀과는 다르다. 
+4.  괴물은 포유류이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 무엇을 이용하여 책의 첫 부분을 면밀히 조사하였는가?
+1.  돋보기 안경
+2.  현미경
+3.  망원경
+4.  확대경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 발견한 '아르네 사크누셈'의 설명으로 올바른 것은?
+1.  독일 사람이다.
+2.  광물학자이다.
+3.  16세기 사람이다.
+4.  유명하지 않은 사람이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L24.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R24.wav</t>
+  </si>
+  <si>
+    <t>괴물을 몰아내야한다고 생각한 나라로 언급된 것은?
+1.  미국과 캐나다
+2.  영국과 이탈리아
+3.  스페인과 캐나다
+4.  미국과 영국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 사냥이 결정된 이후 얼마 동안 괴물에 대한 소식이 들리지 않았는가? 
+1.  한 달
+2.  두 달
+3.  세 달
+4.  네 달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비켄나, 베이컨, 룰루스, 파라켈수스의 직업은 무엇인가?
+1.  광물학자
+2.  경제학자
+3.  연금술사
+4.  역사학자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 언급한 자신의 발견을 감춘 사람은 누구인가?
+1.  셰익스피어
+2.  아리스토텔레스
+3.  플라톤
+4.  갈릴레이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L25.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R25.wav</t>
+  </si>
+  <si>
+    <t>이야기에서 등장한 해저 케이블은 어느 바다를 횡단하는가?
+1.  태평양
+2.  인도양
+3.  대서양
+4.  북극해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자는 에이브러햄 링컨 호가 브룩클린 선창을 떠나기 몇 시간 전에 편지를 받았는가?
+1.  1 시간 
+2.  2 시간  
+3.  3 시간  
+4.  4 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 암호문을 해석할 때까지 _______고 했다.
+1.  책상에서 일어나지 않겠다
+2.  먹지도 자지도 않겠다
+3.  강의에 나가지 않겠다
+4.  담배를 피지 않겠다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌은 양피지의 언어가 어디의 것이라고 생각했는가? 
+1.  동유럽
+2.  서유럽
+3.  남유럽
+4.  북유럽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_L26.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_R26.wav</t>
+  </si>
+  <si>
+    <t>미국 정부는 화자가 어떤 나라의 대표로 원정대에 참여하는 것을 허락하는가?
+1.  독일
+2.  프랑스
+3.  영국
+4.  미국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고국에 있는 화자의 작은 숙소는 어디에 위치해 있는가?
+1.  식물원
+2.  동물원
+3.  공원
+4.  유원지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌에 말에 의하면, 16세기 학자들이 대개 사용한 언어는 무엇인가?
+1.  스페인어
+2.  프랑스어
+3.  히브리어
+4.  라틴어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자가 의자에서 튀어오를뻔 한 이유는 무엇인가?
+1.  삼촌의 통찰력에 감탄해서
+2.  라틴어라는 것을 믿을 수 없어서
+3.  암호를 풀 수 있다는 기쁨을 주체할 수 없어서
+4.  삼촌의 생각이 틀렸다는 것을 주장하고 싶어서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>stim/Journey_LR27.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stim/Journey_RL27.wav</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>화자가 자연사 박물관으로 가져가고 싶어하는 것은 무엇인가?
@@ -311,7 +1082,7 @@
 2.  일각고래의 기름
 3.  일각고래의 가죽
 4.  일각고래의 이빨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>콩세유의 특징으로 아닌 것은?
@@ -319,7 +1090,7 @@
 2.  열성적이다.
 3.  헌신적이다.
 4.  잘 놀란다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>양피지에는 몇 개의 글자가 있는가?
@@ -327,7 +1098,7 @@
 2.  132개
 3.  232개
 4.  332개</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>삼촌은 암호가 _____(으)로 배열되어있다고 생각했다.
@@ -335,13 +1106,7 @@
 2.  수학적
 3.  통계적
 4.  기계적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stim/Journey_LR28.wav</t>
-  </si>
-  <si>
-    <t>stim/Journey_RL28.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>콩세유는 어느 분야에 정통한가?
@@ -349,7 +1114,7 @@
 2.  역사학
 3.  암석학
 4.  기상학</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>콩세유와 몇 년간 여행을 함께했는가?
@@ -357,7 +1122,7 @@
 2.  10 년
 3.  15 년
 4.  20 년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>화자가 삼촌의 물음에 대답하지 못한 이유는?
@@ -365,7 +1130,7 @@
 2.  암호를 해독하는데 집중해서
 3.  점심이 소화가 안 돼서
 4.  졸고 있어서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그라우벤의 외모적 특징으로 맞는 것은?
@@ -373,11 +1138,83 @@
 2.  갈색 머리에 푸른 눈
 3.  금발에 푸른 눈
 4.  갈색 머리에 검은 눈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>journey_Q1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_LR29.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_RL29.wav</t>
+  </si>
+  <si>
+    <t>콩세유의 나이는 얼마인가?
+1.  27세
+2.  28세
+3.  29세
+4.  30세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기에 따르면 화자는 몇 번 '콩세유' 라고 소리를 질렀는가?
+1.  4 번
+2.  3 번
+3.  2 번
+4.  1 번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자와 그라우벤이 날마다 한 일은 무엇인가?
+1.  삼촌 서재 정리
+2.  라틴어 공부
+3.  정원 가꾸기
+4.  광물 표본 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자는 그라우벤의 손길을 받는 무엇을 부러워했는가?
+1.  책
+2.  돌멩이
+3.  고양이
+4.  동네 어린아이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stim/Journey_LR30.wav</t>
+  </si>
+  <si>
+    <t>stim/Journey_RL30.wav</t>
+  </si>
+  <si>
+    <t>콩세유에게 얼마 뒤에 출발한다고 말했는가?
+1.  1시간
+2.  2시간
+3.  3시간
+4.  4시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자와 콩세유가 기존에 가려고 했던 도시는 어디인가?
+1.  파리
+2.  마르세유
+3.  리옹
+4.  니스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라우벤과 화자는 강 기슭의 누구에게 인사하곤 했는가?
+1.  개구리
+2.  오리
+3.  백조
+4.  낚시꾼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자를 뒤죽박죽 섞는 방법으로 삼촌이 떠올린 것은 무엇인가?
+1.  낱말을 세로로 쓰기 
+2.  낱말을 가로로 쓰기
+3.  낱말을 거꾸로 쓰기
+4.  낱말을 뒤집어 쓰기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,15 +1245,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -451,12 +1288,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -737,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -781,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -801,327 +1638,1047 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+    <row r="3" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="8">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="153.6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="211.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="153.6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="3">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="134.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
